--- a/BackTest/2020-01-15 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-15 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>-436998.3037763278</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-330678.6997763277</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-397517.9857763277</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-408792.6167763277</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-456665.6277763277</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-428893.8587763277</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-698665.0296763277</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-685395.9246763277</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-576931.956842911</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-574689.4153151471</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -8668,14 +8668,10 @@
         <v>-6753015.506815147</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3.952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8705,19 +8701,11 @@
         <v>-6805750.937815147</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J252" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8746,19 +8734,11 @@
         <v>-6742113.132815147</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J253" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8767,10 @@
         <v>-6746010.215815146</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="J254" t="n">
-        <v>3.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -8824,19 +8800,11 @@
         <v>-6729253.581815147</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J255" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8865,19 +8833,11 @@
         <v>-6766486.017815147</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="J256" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8906,14 +8866,10 @@
         <v>-6766486.017815147</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J257" t="n">
-        <v>3.953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
@@ -8943,19 +8899,11 @@
         <v>-6757733.989815147</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J258" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8984,19 +8932,11 @@
         <v>-6773719.728815147</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="J259" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9025,14 +8965,10 @@
         <v>-6773719.728815147</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J260" t="n">
-        <v>3.953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9062,19 +8998,11 @@
         <v>-6729430.680815146</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J261" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9106,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +9130,10 @@
         <v>-6692712.994815147</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="J265" t="n">
-        <v>3.952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
@@ -9245,19 +9163,11 @@
         <v>-6692712.994815147</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9286,19 +9196,11 @@
         <v>-6652612.016815146</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9327,14 +9229,10 @@
         <v>-6451283.579815147</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="J268" t="n">
-        <v>3.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9367,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9508,17 +9394,11 @@
         <v>-12305883.54221515</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9806,17 +9658,11 @@
         <v>-11135347.48681515</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9845,7 +9691,7 @@
         <v>-11513176.59231515</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.958</v>
@@ -9853,7 +9699,7 @@
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9884,7 +9730,7 @@
         <v>-11276606.03131515</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.953</v>
@@ -9923,7 +9769,7 @@
         <v>-10922169.84031515</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>3.954</v>
@@ -9999,9 +9845,11 @@
         <v>-10866061.45335599</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3.966</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10073,9 +9921,11 @@
         <v>-11219378.80935599</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10332,11 +10182,9 @@
         <v>-9413681.061774299</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10556,11 +10404,9 @@
         <v>-8113991.920774299</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10706,11 +10552,9 @@
         <v>-9226959.738974299</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10745,11 +10589,9 @@
         <v>-9226959.738974299</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10821,11 +10663,9 @@
         <v>-9226959.738974299</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11859,7 +11699,7 @@
         <v>-9191358.193774302</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12451,7 +12291,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12525,7 +12365,7 @@
         <v>-9854205.351974297</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12562,7 +12402,7 @@
         <v>-10320794.6030743</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12599,7 +12439,7 @@
         <v>-10349960.9400743</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12673,7 +12513,7 @@
         <v>-9243826.399674296</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12710,7 +12550,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12747,7 +12587,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12821,7 +12661,7 @@
         <v>-9003602.575574297</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12858,7 +12698,7 @@
         <v>-8868992.265574297</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12895,7 +12735,7 @@
         <v>-8788363.619574297</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12969,7 +12809,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13154,7 +12994,7 @@
         <v>-8240201.776474297</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13191,7 +13031,7 @@
         <v>-8168868.219774297</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13265,7 +13105,7 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13302,7 +13142,7 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13339,7 +13179,7 @@
         <v>-7828849.339774298</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14116,7 +13956,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14264,7 +14104,7 @@
         <v>-7196025.703239807</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14338,7 +14178,7 @@
         <v>-7439439.319239807</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14486,18 +14326,16 @@
         <v>-7599712.667239807</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="inlineStr"/>
     </row>
     <row r="408">
@@ -14523,15 +14361,11 @@
         <v>-7493512.597239806</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14560,15 +14394,11 @@
         <v>-7488175.783239806</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14597,15 +14427,11 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14634,15 +14460,11 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14671,15 +14493,11 @@
         <v>-8082253.435039806</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14708,15 +14526,11 @@
         <v>-7941703.890039806</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14745,15 +14559,11 @@
         <v>-7957727.817039806</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14782,15 +14592,11 @@
         <v>-7937345.885039806</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14819,15 +14625,11 @@
         <v>-7908342.095039806</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14856,15 +14658,11 @@
         <v>-7996259.120039807</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14893,15 +14691,11 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14930,15 +14724,11 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14967,15 +14757,11 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15008,11 +14794,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15045,11 +14827,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15082,11 +14860,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15119,11 +14893,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15156,11 +14926,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15193,11 +14959,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15230,11 +14992,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15267,11 +15025,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15304,11 +15058,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15341,11 +15091,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15378,11 +15124,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15415,11 +15157,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15452,11 +15190,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +15223,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15526,11 +15256,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15559,15 +15285,11 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15596,15 +15318,11 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15633,15 +15351,11 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15670,15 +15384,11 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15707,15 +15417,11 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15744,16 +15450,14 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
       <c r="M441" t="inlineStr"/>
     </row>
     <row r="442">
@@ -15779,7 +15483,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15812,7 +15516,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15845,7 +15549,7 @@
         <v>-9387714.556890551</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15878,7 +15582,7 @@
         <v>-10267620.31189055</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15911,7 +15615,7 @@
         <v>-10214977.30389055</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15944,7 +15648,7 @@
         <v>-10332941.56289055</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15977,7 +15681,7 @@
         <v>-13912459.76549055</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16010,7 +15714,7 @@
         <v>-13442252.83549055</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16043,7 +15747,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16076,7 +15780,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16142,7 +15846,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16175,7 +15879,7 @@
         <v>-14582155.38279055</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16208,7 +15912,7 @@
         <v>-14522343.25379055</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16241,7 +15945,7 @@
         <v>-14340406.81579055</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16274,7 +15978,7 @@
         <v>-14339304.90654185</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16307,7 +16011,7 @@
         <v>-14830004.47754185</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16340,7 +16044,7 @@
         <v>-14899122.06454185</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16373,7 +16077,7 @@
         <v>-15204811.15254185</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16406,7 +16110,7 @@
         <v>-15479558.92554185</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16439,7 +16143,7 @@
         <v>-15097999.01754185</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16472,7 +16176,7 @@
         <v>-15027336.88254185</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16505,7 +16209,7 @@
         <v>-15623506.18254185</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16538,7 +16242,7 @@
         <v>-15839246.85654186</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16571,7 +16275,7 @@
         <v>-15587885.95754186</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16604,7 +16308,7 @@
         <v>-15587885.95754186</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16835,7 +16539,7 @@
         <v>-16305430.07844186</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16967,7 +16671,7 @@
         <v>-15814658.71904186</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17099,7 +16803,7 @@
         <v>-17522992.29404185</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17165,7 +16869,7 @@
         <v>-17663373.14664185</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17231,7 +16935,7 @@
         <v>-19827576.65634185</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17264,7 +16968,7 @@
         <v>-19769665.94534186</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17297,7 +17001,7 @@
         <v>-19729520.93234186</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17330,7 +17034,7 @@
         <v>-19787868.09134186</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17363,7 +17067,7 @@
         <v>-19996148.99534186</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17396,7 +17100,7 @@
         <v>-19949273.34234186</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17429,7 +17133,7 @@
         <v>-19949273.34234186</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17462,7 +17166,7 @@
         <v>-20232830.06074186</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17495,7 +17199,7 @@
         <v>-20232830.06074186</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17561,7 +17265,7 @@
         <v>-20232414.54664186</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17627,7 +17331,7 @@
         <v>-19624244.92666712</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17759,7 +17463,7 @@
         <v>-19900231.32266712</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18551,7 +18255,7 @@
         <v>-21117680.63726713</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18683,7 +18387,7 @@
         <v>-20917656.67526713</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18815,7 +18519,7 @@
         <v>-20940833.38406713</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19079,10 +18783,14 @@
         <v>-21744224.02876713</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="J542" t="n">
+        <v>3.977</v>
+      </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
@@ -19112,11 +18820,19 @@
         <v>-21763974.89776713</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="J543" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19145,11 +18861,19 @@
         <v>-21785794.02576713</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J544" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19178,11 +18902,19 @@
         <v>-21912596.12976713</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="J545" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19211,11 +18943,19 @@
         <v>-21996912.76376713</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="J546" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19247,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19280,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19313,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19346,8 +19104,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19379,8 +19143,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19412,8 +19182,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19445,8 +19221,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19478,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19511,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19544,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19577,8 +19377,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19610,8 +19416,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19643,8 +19455,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19676,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19709,8 +19533,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19742,8 +19572,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19775,8 +19611,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19808,8 +19650,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19841,8 +19689,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19874,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19907,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19940,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19973,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20006,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20039,8 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20072,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20105,8 +20001,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20138,8 +20040,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20171,8 +20079,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20204,8 +20118,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20237,8 +20157,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20270,8 +20196,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20303,8 +20235,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20336,8 +20274,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20369,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20402,8 +20352,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20435,8 +20391,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20468,8 +20430,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20501,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20534,8 +20508,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20567,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20600,8 +20586,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20633,8 +20625,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20666,8 +20664,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20699,8 +20703,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20732,8 +20742,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20765,8 +20781,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20798,8 +20820,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20831,8 +20859,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20864,8 +20898,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20897,8 +20937,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20930,8 +20976,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20963,8 +21015,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20996,8 +21054,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21029,8 +21093,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21062,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21095,8 +21171,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21128,8 +21210,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21161,8 +21249,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21194,8 +21288,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21227,8 +21327,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21260,8 +21366,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21293,8 +21405,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21326,8 +21444,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21359,8 +21483,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21392,8 +21522,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21425,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21458,8 +21600,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21491,8 +21639,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21524,8 +21678,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21554,11 +21714,19 @@
         <v>-20914524.49706867</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="J617" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21587,11 +21755,19 @@
         <v>-21034405.30536867</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="J618" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21620,11 +21796,19 @@
         <v>-21009946.01736867</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J619" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21653,11 +21837,19 @@
         <v>-21132206.72316867</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="J620" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21686,11 +21878,19 @@
         <v>-20596801.37486867</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J621" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21719,11 +21919,19 @@
         <v>-20758032.40986867</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3.994</v>
+      </c>
+      <c r="J622" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21752,11 +21960,19 @@
         <v>-20750360.51886867</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="J623" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21788,8 +22004,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21821,8 +22043,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21854,8 +22082,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21887,8 +22121,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21920,8 +22160,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21953,8 +22199,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21986,8 +22238,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22019,8 +22277,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22052,8 +22316,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22085,8 +22355,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22118,8 +22394,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22151,8 +22433,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22184,8 +22472,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22217,8 +22511,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22250,8 +22550,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22283,8 +22589,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22316,8 +22628,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22349,8 +22667,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22382,8 +22706,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22415,8 +22745,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22448,8 +22784,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22481,8 +22823,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22514,8 +22862,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22547,8 +22901,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22580,8 +22940,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22613,8 +22979,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22646,8 +23018,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22679,8 +23057,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22712,8 +23096,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22745,8 +23135,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22778,8 +23174,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22811,8 +23213,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22844,8 +23252,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22877,8 +23291,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22910,8 +23330,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22943,8 +23369,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22976,8 +23408,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23009,8 +23447,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23042,8 +23486,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23075,8 +23525,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23108,8 +23564,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23141,8 +23603,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23174,8 +23642,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23207,8 +23681,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23240,8 +23720,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23273,8 +23759,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23306,8 +23798,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23339,8 +23837,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23372,8 +23876,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23405,8 +23915,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23438,8 +23954,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23471,8 +23993,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23504,8 +24032,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23537,8 +24071,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23570,8 +24110,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23603,8 +24149,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23636,8 +24188,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23669,8 +24227,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23702,8 +24266,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23735,8 +24305,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23768,8 +24344,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23801,8 +24383,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23834,8 +24422,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23867,8 +24461,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23900,8 +24500,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23933,8 +24539,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23966,8 +24578,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23999,8 +24617,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24032,8 +24656,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24065,8 +24695,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24098,8 +24734,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +24773,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24164,8 +24812,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24197,8 +24851,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24230,8 +24890,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24263,8 +24929,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24296,8 +24968,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24329,8 +25007,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24362,8 +25046,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24395,8 +25085,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24428,8 +25124,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24461,8 +25163,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24494,8 +25202,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24527,8 +25241,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24560,8 +25280,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24593,8 +25319,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24626,8 +25358,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24659,8 +25397,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24692,8 +25436,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24725,8 +25475,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24758,8 +25514,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24791,8 +25553,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24824,8 +25592,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24857,8 +25631,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24890,8 +25670,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24923,8 +25709,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24956,8 +25748,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24989,8 +25787,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25022,8 +25826,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25055,8 +25865,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25088,8 +25904,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25121,8 +25943,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25154,8 +25982,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25187,8 +26021,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25220,8 +26060,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25253,8 +26099,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25286,8 +26138,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25319,8 +26177,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25352,8 +26216,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25385,8 +26255,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25418,8 +26294,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25451,8 +26333,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25484,8 +26372,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25517,8 +26411,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25550,8 +26450,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25583,8 +26489,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25616,8 +26528,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25649,8 +26567,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25682,8 +26606,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25715,8 +26645,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25748,8 +26684,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25781,8 +26723,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25814,8 +26762,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25847,8 +26801,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25880,8 +26840,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25913,8 +26879,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25946,8 +26918,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25979,8 +26957,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26012,8 +26996,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26045,8 +27035,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26078,8 +27074,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26111,8 +27113,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26144,8 +27152,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26177,8 +27191,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26210,8 +27230,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26243,8 +27269,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26276,8 +27308,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26309,8 +27347,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26342,8 +27386,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26375,8 +27425,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26408,8 +27464,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26441,8 +27503,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26474,8 +27542,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26507,8 +27581,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26540,8 +27620,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26573,8 +27659,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26606,8 +27698,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26639,8 +27737,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26672,8 +27776,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26705,8 +27815,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26738,8 +27854,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26771,8 +27893,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26804,8 +27932,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26837,8 +27971,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26870,8 +28010,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26903,8 +28049,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26936,8 +28088,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26969,8 +28127,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27002,8 +28166,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27035,8 +28205,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27068,8 +28244,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27101,8 +28283,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27134,8 +28322,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27167,8 +28361,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27200,8 +28400,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27233,8 +28439,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27266,8 +28478,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27299,8 +28517,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27332,8 +28556,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27365,8 +28595,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27398,8 +28634,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27431,8 +28673,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27464,8 +28712,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27497,8 +28751,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27530,8 +28790,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27563,8 +28829,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27596,8 +28868,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27629,8 +28907,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27662,8 +28946,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27695,8 +28985,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27728,8 +29024,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27761,8 +29063,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27794,8 +29102,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27827,8 +29141,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27860,8 +29180,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27893,8 +29219,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27926,8 +29258,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27959,8 +29297,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27992,8 +29336,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28025,8 +29375,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28058,8 +29414,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28091,8 +29453,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28124,8 +29492,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28157,8 +29531,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28190,8 +29570,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28223,8 +29609,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28256,8 +29648,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28289,8 +29687,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28322,8 +29726,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28355,8 +29765,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28388,8 +29804,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28421,8 +29843,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28454,8 +29882,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28487,8 +29921,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28520,8 +29960,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28553,8 +29999,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28586,8 +30038,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28619,8 +30077,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28652,8 +30116,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28685,8 +30155,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28718,8 +30194,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28751,8 +30233,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28784,8 +30272,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28817,8 +30311,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28850,8 +30350,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28883,8 +30389,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28916,8 +30428,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28949,8 +30467,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28982,8 +30506,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29015,8 +30545,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29048,8 +30584,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29081,8 +30623,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29114,8 +30662,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29147,8 +30701,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29180,8 +30740,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29213,8 +30779,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29246,8 +30818,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29279,8 +30857,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29312,8 +30896,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29345,8 +30935,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29378,8 +30974,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29411,8 +31013,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29444,8 +31052,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29477,8 +31091,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29510,8 +31130,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29543,8 +31169,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29576,8 +31208,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29609,8 +31247,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29642,8 +31286,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29675,8 +31325,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29708,8 +31364,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29741,8 +31403,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29774,8 +31442,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29807,8 +31481,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29840,8 +31520,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29873,8 +31559,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29906,8 +31598,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29939,8 +31637,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29972,8 +31676,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30005,8 +31715,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30038,8 +31754,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30071,8 +31793,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30104,8 +31832,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30137,8 +31871,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30170,8 +31910,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30203,8 +31949,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30236,8 +31988,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30269,8 +32027,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30302,8 +32066,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30335,8 +32105,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30368,8 +32144,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30401,8 +32183,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30434,8 +32222,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30467,8 +32261,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30500,8 +32300,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30533,8 +32339,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30566,8 +32378,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30599,8 +32417,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30632,8 +32456,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30665,8 +32495,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30698,8 +32534,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30731,8 +32573,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30764,8 +32612,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30797,8 +32651,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30830,8 +32690,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30863,8 +32729,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30896,8 +32768,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30929,8 +32807,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30962,8 +32846,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30995,8 +32885,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31028,8 +32924,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31061,8 +32963,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31094,8 +33002,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31127,8 +33041,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31160,8 +33080,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31193,8 +33119,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31226,8 +33158,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31259,8 +33197,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31292,8 +33236,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31325,8 +33275,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31358,8 +33314,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31391,8 +33353,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31424,8 +33392,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31457,8 +33431,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31490,8 +33470,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31523,8 +33509,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31556,8 +33548,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31589,8 +33587,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31622,8 +33626,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31655,8 +33665,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31688,8 +33704,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31721,8 +33743,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31754,8 +33782,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31787,8 +33821,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31820,8 +33860,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31853,8 +33899,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31886,8 +33938,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31919,8 +33977,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31952,8 +34016,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31985,8 +34055,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32018,8 +34094,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32051,8 +34133,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32084,8 +34172,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32117,8 +34211,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32150,8 +34250,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32183,8 +34289,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32216,8 +34328,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32249,8 +34367,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32282,8 +34406,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32315,8 +34445,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32348,8 +34484,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32381,8 +34523,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32414,8 +34562,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32447,8 +34601,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32480,8 +34640,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32513,8 +34679,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32546,8 +34718,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32579,8 +34757,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32612,8 +34796,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32645,8 +34835,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32678,8 +34874,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32711,8 +34913,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32744,8 +34952,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32777,8 +34991,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32810,8 +35030,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32843,8 +35069,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32876,8 +35108,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32909,8 +35147,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32942,8 +35186,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32975,8 +35225,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33008,8 +35264,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33041,8 +35303,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33074,8 +35342,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33107,8 +35381,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33140,8 +35420,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33173,8 +35459,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33206,8 +35498,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33239,8 +35537,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33272,8 +35576,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33305,8 +35615,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33338,8 +35654,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33371,8 +35693,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33404,8 +35732,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33437,8 +35771,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33470,8 +35810,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33503,8 +35849,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33536,8 +35888,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33569,8 +35927,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33602,8 +35966,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33635,8 +36005,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33668,8 +36044,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33701,8 +36083,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33734,8 +36122,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33767,8 +36161,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33800,14 +36200,20 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
       <c r="M988" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-15 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-773178.8357763278</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-732409.9997763277</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-621560.4917763277</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-479766.4207763277</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-496188.3807763277</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-469659.9947763277</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -9691,17 +9691,11 @@
         <v>-11513176.59231515</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9730,17 +9724,11 @@
         <v>-11276606.03131515</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9769,17 +9757,11 @@
         <v>-10922169.84031515</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9812,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9845,17 +9823,11 @@
         <v>-10866061.45335599</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9888,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9921,17 +9889,11 @@
         <v>-11219378.80935599</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9964,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10001,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10038,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10075,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10112,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10149,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10223,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10260,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10297,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10334,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10371,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10445,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10482,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10519,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10556,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10593,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10630,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10667,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10704,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10741,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10778,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10815,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10852,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10889,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10926,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10963,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11000,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11037,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11074,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11111,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11148,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11185,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11222,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11259,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11296,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11333,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11370,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11403,15 +11209,11 @@
         <v>-9146038.051774301</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11440,15 +11242,11 @@
         <v>-9618106.068774302</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11477,15 +11275,11 @@
         <v>-9147056.068774302</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11514,15 +11308,11 @@
         <v>-9220858.787774302</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11551,15 +11341,11 @@
         <v>-9066834.209774302</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11588,15 +11374,11 @@
         <v>-8662590.755774302</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11625,15 +11407,11 @@
         <v>-8394668.995774303</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11662,15 +11440,11 @@
         <v>-9101680.550774302</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11699,15 +11473,11 @@
         <v>-9191358.193774302</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11736,15 +11506,11 @@
         <v>-9361667.168774301</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11773,15 +11539,11 @@
         <v>-9886545.987774301</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11810,15 +11572,11 @@
         <v>-10197822.9357743</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11847,15 +11605,11 @@
         <v>-9468207.102774302</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11888,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11925,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11962,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11999,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12036,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12073,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12110,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12143,15 +11869,11 @@
         <v>-9320177.671974299</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12180,15 +11902,11 @@
         <v>-9159078.438974299</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12217,15 +11935,11 @@
         <v>-9263125.198974298</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12254,15 +11968,11 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12291,15 +12001,11 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12328,15 +12034,11 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12365,15 +12067,11 @@
         <v>-9854205.351974297</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12402,15 +12100,11 @@
         <v>-10320794.6030743</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12439,15 +12133,11 @@
         <v>-10349960.9400743</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12476,15 +12166,11 @@
         <v>-10303550.6810743</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12513,15 +12199,11 @@
         <v>-9243826.399674296</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12550,15 +12232,11 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12587,15 +12265,11 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12624,15 +12298,11 @@
         <v>-8957095.608574297</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12661,15 +12331,11 @@
         <v>-9003602.575574297</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12698,15 +12364,11 @@
         <v>-8868992.265574297</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12735,15 +12397,11 @@
         <v>-8788363.619574297</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12772,15 +12430,11 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12809,15 +12463,11 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12846,15 +12496,11 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12883,15 +12529,11 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12920,15 +12562,11 @@
         <v>-8634967.366574297</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12957,15 +12595,11 @@
         <v>-8280164.348474297</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12994,15 +12628,11 @@
         <v>-8240201.776474297</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13031,15 +12661,11 @@
         <v>-8168868.219774297</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13068,15 +12694,11 @@
         <v>-8017659.236074298</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13105,15 +12727,11 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13146,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13183,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13220,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13257,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13294,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13331,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13368,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13405,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13442,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13479,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13516,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13553,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13586,15 +13156,11 @@
         <v>-7629559.752101711</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13623,15 +13189,11 @@
         <v>-7749056.323101711</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13664,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13738,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13775,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13812,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13886,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13923,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13960,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13997,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14034,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14071,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14108,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14182,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14219,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14256,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14293,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14326,16 +13816,14 @@
         <v>-7599712.667239807</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
       <c r="M407" t="inlineStr"/>
     </row>
     <row r="408">
@@ -14361,7 +13849,7 @@
         <v>-7493512.597239806</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14394,7 +13882,7 @@
         <v>-7488175.783239806</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14427,7 +13915,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14460,7 +13948,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14493,7 +13981,7 @@
         <v>-8082253.435039806</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14526,7 +14014,7 @@
         <v>-7941703.890039806</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14559,7 +14047,7 @@
         <v>-7957727.817039806</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14592,7 +14080,7 @@
         <v>-7937345.885039806</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14625,7 +14113,7 @@
         <v>-7908342.095039806</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14658,7 +14146,7 @@
         <v>-7996259.120039807</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14691,7 +14179,7 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14724,7 +14212,7 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14757,7 +14245,7 @@
         <v>-7942380.042039807</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15285,7 +14773,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15318,7 +14806,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15351,7 +14839,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15384,7 +14872,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15417,7 +14905,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15450,7 +14938,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15483,7 +14971,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15516,7 +15004,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15549,7 +15037,7 @@
         <v>-9387714.556890551</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15582,7 +15070,7 @@
         <v>-10267620.31189055</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15615,7 +15103,7 @@
         <v>-10214977.30389055</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15648,7 +15136,7 @@
         <v>-10332941.56289055</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15681,7 +15169,7 @@
         <v>-13912459.76549055</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15714,7 +15202,7 @@
         <v>-13442252.83549055</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15747,7 +15235,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15780,7 +15268,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15846,7 +15334,7 @@
         <v>-13615313.10979055</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15879,7 +15367,7 @@
         <v>-14582155.38279055</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15912,7 +15400,7 @@
         <v>-14522343.25379055</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15945,7 +15433,7 @@
         <v>-14340406.81579055</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15978,7 +15466,7 @@
         <v>-14339304.90654185</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16011,7 +15499,7 @@
         <v>-14830004.47754185</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16044,7 +15532,7 @@
         <v>-14899122.06454185</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16077,7 +15565,7 @@
         <v>-15204811.15254185</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16110,7 +15598,7 @@
         <v>-15479558.92554185</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16143,7 +15631,7 @@
         <v>-15097999.01754185</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16176,7 +15664,7 @@
         <v>-15027336.88254185</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16209,7 +15697,7 @@
         <v>-15623506.18254185</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16242,7 +15730,7 @@
         <v>-15839246.85654186</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16275,7 +15763,7 @@
         <v>-15587885.95754186</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16308,7 +15796,7 @@
         <v>-15587885.95754186</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17958,10 +17446,14 @@
         <v>-20477238.73826713</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="J517" t="n">
+        <v>4.005</v>
+      </c>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
@@ -17994,8 +17486,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18027,8 +17525,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18060,8 +17564,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18093,8 +17603,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18126,8 +17642,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18159,8 +17681,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18192,8 +17720,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18225,8 +17759,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18258,8 +17798,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18291,8 +17837,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18324,8 +17876,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18357,8 +17915,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18387,13 +17951,19 @@
         <v>-20917656.67526713</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L530" t="n">
-        <v>1</v>
+        <v>0.9917540574282148</v>
       </c>
       <c r="M530" t="inlineStr"/>
     </row>
@@ -18420,7 +17990,7 @@
         <v>-20874056.40126713</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18453,7 +18023,7 @@
         <v>-20729316.67426712</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18783,14 +18353,10 @@
         <v>-21744224.02876713</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="J542" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
@@ -18820,493 +18386,413 @@
         <v>-21763974.89776713</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>3.976</v>
-      </c>
-      <c r="J543" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K543" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="C544" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="D544" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="E544" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="F544" t="n">
+        <v>21819.128</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-21785794.02576713</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C545" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="D545" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E545" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="F545" t="n">
+        <v>126802.104</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-21912596.12976713</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C546" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D546" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E546" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F546" t="n">
+        <v>84316.63400000001</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-21996912.76376713</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D547" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E547" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="F547" t="n">
+        <v>255313.645</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-21741599.11876713</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="D548" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="E548" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="F548" t="n">
+        <v>4887.355</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-21736711.76376713</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="C549" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="D549" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="E549" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="F549" t="n">
+        <v>48274.299</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-21688437.46476713</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="C550" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="D550" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="E550" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="F550" t="n">
+        <v>42573.84</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-21731011.30476713</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="C551" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D551" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="E551" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="F551" t="n">
+        <v>130324.905</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-21861336.20976713</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C552" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D552" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E552" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="F552" t="n">
+        <v>88254.08500000001</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-21861336.20976713</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C553" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D553" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E553" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="F553" t="n">
+        <v>44382.833</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-21861336.20976713</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="C554" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D554" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="E554" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="F554" t="n">
+        <v>26891.838</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-21861336.20976713</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="C555" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D555" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="E555" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="F555" t="n">
+        <v>235238.558</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-21861336.20976713</v>
+      </c>
+      <c r="H555" t="n">
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="C544" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="D544" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="E544" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="F544" t="n">
-        <v>21819.128</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-21785794.02576713</v>
-      </c>
-      <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J544" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C545" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="D545" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E545" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="F545" t="n">
-        <v>126802.104</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-21912596.12976713</v>
-      </c>
-      <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="J545" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C546" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D546" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E546" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F546" t="n">
-        <v>84316.63400000001</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-21996912.76376713</v>
-      </c>
-      <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="J546" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="C547" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D547" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E547" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="F547" t="n">
-        <v>255313.645</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-21741599.11876713</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="C548" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="D548" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="E548" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="F548" t="n">
-        <v>4887.355</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-21736711.76376713</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="C549" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="D549" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="E549" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="F549" t="n">
-        <v>48274.299</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-21688437.46476713</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="C550" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="D550" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="E550" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="F550" t="n">
-        <v>42573.84</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-21731011.30476713</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="C551" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D551" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="E551" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="F551" t="n">
-        <v>130324.905</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-21861336.20976713</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C552" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D552" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E552" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="F552" t="n">
-        <v>88254.08500000001</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-21861336.20976713</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C553" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D553" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E553" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="F553" t="n">
-        <v>44382.833</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-21861336.20976713</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C554" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D554" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E554" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="F554" t="n">
-        <v>26891.838</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-21861336.20976713</v>
-      </c>
-      <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="C555" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D555" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="E555" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="F555" t="n">
-        <v>235238.558</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-21861336.20976713</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19335,12 +18821,12 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +18863,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,9 +18900,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19452,12 +18934,12 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19491,12 +18973,12 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19533,9 +19015,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19572,9 +19052,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19611,9 +19089,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19650,9 +19126,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19689,9 +19163,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19728,9 +19200,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19767,9 +19237,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19806,9 +19274,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19845,9 +19311,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19884,9 +19348,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19923,9 +19385,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19962,9 +19422,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20001,9 +19459,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20040,9 +19496,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20079,9 +19533,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,9 +19570,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20157,9 +19607,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20196,9 +19644,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20235,9 +19681,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20274,9 +19718,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20313,9 +19755,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20352,9 +19792,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20391,9 +19829,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20430,9 +19866,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20469,9 +19903,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20508,9 +19940,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20547,9 +19977,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20586,9 +20014,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20625,9 +20051,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20664,9 +20088,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20703,9 +20125,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20742,9 +20162,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20781,9 +20199,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,9 +20236,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20859,9 +20273,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20898,9 +20310,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20937,9 +20347,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20384,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21015,9 +20421,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,9 +20458,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21093,9 +20495,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21132,9 +20532,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21171,9 +20569,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21210,9 +20606,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21249,9 +20643,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21288,9 +20680,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21327,9 +20717,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,9 +20754,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21405,9 +20791,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21444,9 +20828,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21483,9 +20865,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21522,9 +20902,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21561,9 +20939,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21600,9 +20976,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21639,9 +21013,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21678,9 +21050,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21714,14 +21084,10 @@
         <v>-20914524.49706867</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="J617" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21755,14 +21121,10 @@
         <v>-21034405.30536867</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="J618" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21796,14 +21158,10 @@
         <v>-21009946.01736867</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J619" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21837,14 +21195,10 @@
         <v>-21132206.72316867</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="J620" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21878,14 +21232,10 @@
         <v>-20596801.37486867</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J621" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21919,14 +21269,10 @@
         <v>-20758032.40986867</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3.994</v>
-      </c>
-      <c r="J622" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21960,14 +21306,10 @@
         <v>-20750360.51886867</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J623" t="n">
-        <v>3.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22004,9 +21346,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22043,9 +21383,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22082,9 +21420,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22121,9 +21457,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22160,9 +21494,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22199,9 +21531,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22238,9 +21568,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22277,9 +21605,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22316,9 +21642,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22355,9 +21679,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22394,9 +21716,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22433,9 +21753,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22472,9 +21790,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22511,9 +21827,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22550,9 +21864,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22589,9 +21901,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22628,9 +21938,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22667,9 +21975,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22706,9 +22012,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22745,9 +22049,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22784,9 +22086,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22823,9 +22123,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22859,12 +22157,12 @@
         <v>-21059062.87876715</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22901,9 +22199,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22940,9 +22236,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22979,9 +22273,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23015,12 +22307,12 @@
         <v>-21153219.05676715</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23057,9 +22349,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23093,12 +22383,12 @@
         <v>-21205970.43376715</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3.983</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23132,12 +22422,12 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23171,12 +22461,12 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23210,12 +22500,12 @@
         <v>-21185882.27276715</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23249,12 +22539,12 @@
         <v>-21121237.92476715</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23288,12 +22578,12 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23327,12 +22617,12 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23369,9 +22659,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23408,9 +22696,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23447,9 +22733,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23486,9 +22770,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23525,9 +22807,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23564,9 +22844,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23600,20 +22878,16 @@
         <v>-20979189.92776715</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
@@ -23642,14 +22916,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23678,17 +22946,11 @@
         <v>-21803845.05086715</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23720,14 +22982,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23759,14 +23015,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23798,14 +23048,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23837,14 +23081,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23876,14 +23114,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23915,14 +23147,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23954,14 +23180,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23993,14 +23213,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24032,14 +23246,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24071,14 +23279,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24110,14 +23312,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24149,14 +23345,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24188,14 +23378,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24227,14 +23411,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24266,14 +23444,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24305,14 +23477,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24344,14 +23510,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24383,14 +23543,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24422,14 +23576,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24461,14 +23609,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24500,14 +23642,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24539,14 +23675,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24578,14 +23708,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24617,14 +23741,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24656,14 +23774,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24695,14 +23807,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24734,14 +23840,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24770,17 +23870,15 @@
         <v>-22166156.17136716</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J695" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.982</v>
+      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24809,15 +23907,17 @@
         <v>-22023965.50736716</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J696" t="n">
-        <v>3.977</v>
+        <v>3.982</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L696" t="n">
@@ -24848,15 +23948,17 @@
         <v>-21929975.28736716</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J697" t="n">
-        <v>3.977</v>
+        <v>3.982</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L697" t="n">
@@ -24890,14 +23992,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24929,14 +24025,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24968,14 +24058,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25007,14 +24091,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25046,14 +24124,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25082,17 +24154,11 @@
         <v>-22124259.50066715</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25121,17 +24187,11 @@
         <v>-22069544.25666716</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25160,17 +24220,11 @@
         <v>-22019860.77866716</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25199,17 +24253,11 @@
         <v>-22164474.40366716</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25241,14 +24289,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25280,14 +24322,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25319,14 +24355,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25358,14 +24388,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25397,14 +24421,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25436,14 +24454,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25475,14 +24487,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25514,14 +24520,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25553,14 +24553,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25592,14 +24586,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25631,14 +24619,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25670,14 +24652,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25706,17 +24682,11 @@
         <v>-22212948.33036248</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25745,17 +24715,11 @@
         <v>-21590798.97236248</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25787,14 +24751,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25826,14 +24784,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25865,14 +24817,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25904,14 +24850,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25943,14 +24883,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25982,14 +24916,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26021,14 +24949,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26060,14 +24982,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26099,14 +25015,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26138,14 +25048,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26177,14 +25081,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26216,14 +25114,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26255,14 +25147,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26294,14 +25180,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26333,14 +25213,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26372,14 +25246,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26411,14 +25279,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26450,14 +25312,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26489,14 +25345,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26528,14 +25378,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26567,14 +25411,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26606,14 +25444,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26645,14 +25477,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26684,14 +25510,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26720,17 +25540,11 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26759,17 +25573,11 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26798,17 +25606,11 @@
         <v>-22532042.41436248</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26837,17 +25639,11 @@
         <v>-22467776.17836248</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26876,17 +25672,11 @@
         <v>-22392772.50636248</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26915,17 +25705,11 @@
         <v>-22619261.09636248</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26954,17 +25738,11 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26993,17 +25771,11 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27032,17 +25804,11 @@
         <v>-22682858.96436248</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27071,17 +25837,11 @@
         <v>-22610655.08236248</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27113,14 +25873,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27152,14 +25906,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27191,14 +25939,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27230,14 +25972,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27269,14 +26005,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27308,14 +26038,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27347,14 +26071,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27383,17 +26101,11 @@
         <v>-22046757.59306248</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27422,17 +26134,11 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27464,14 +26170,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27503,14 +26203,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27542,14 +26236,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27581,14 +26269,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27620,14 +26302,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27659,14 +26335,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27695,15 +26365,15 @@
         <v>-21726745.10280554</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>4.001</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L770" t="n">
@@ -27737,9 +26407,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27776,9 +26444,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27815,9 +26481,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27854,9 +26518,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27893,9 +26555,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27932,9 +26592,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27971,9 +26629,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28010,9 +26666,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28049,9 +26703,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28088,9 +26740,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28127,9 +26777,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28166,9 +26814,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28205,9 +26851,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28244,9 +26888,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28283,9 +26925,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28322,9 +26962,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28361,9 +26999,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28400,9 +27036,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28439,9 +27073,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28478,9 +27110,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28517,9 +27147,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28556,9 +27184,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28595,9 +27221,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28634,9 +27258,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28673,9 +27295,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28712,9 +27332,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28751,9 +27369,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28790,9 +27406,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28829,9 +27443,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28868,9 +27480,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28907,9 +27517,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28946,9 +27554,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28985,9 +27591,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29024,9 +27628,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29063,9 +27665,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29102,9 +27702,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29141,9 +27739,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29180,9 +27776,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29219,9 +27813,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29258,9 +27850,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29297,9 +27887,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29336,9 +27924,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29375,9 +27961,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29414,9 +27998,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29453,9 +28035,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29492,9 +28072,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29531,9 +28109,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29570,9 +28146,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29609,9 +28183,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29648,9 +28220,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29687,9 +28257,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29726,9 +28294,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29765,9 +28331,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29804,9 +28368,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29843,9 +28405,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29882,9 +28442,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29921,9 +28479,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29960,9 +28516,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29999,9 +28553,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30038,9 +28590,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30077,9 +28627,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30116,9 +28664,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30155,9 +28701,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30191,12 +28735,12 @@
         <v>-21244838.43674948</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30233,9 +28777,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30272,9 +28814,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30311,9 +28851,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30350,9 +28888,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30389,9 +28925,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30428,9 +28962,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30467,9 +28999,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30506,9 +29036,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30545,9 +29073,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30584,9 +29110,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30623,9 +29147,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30662,9 +29184,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30701,9 +29221,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30740,9 +29258,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30779,9 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30818,9 +29332,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30857,9 +29369,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30896,9 +29406,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30935,9 +29443,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30974,9 +29480,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31013,9 +29517,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31052,9 +29554,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31091,9 +29591,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31130,9 +29628,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31169,9 +29665,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31208,9 +29702,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31244,12 +29736,12 @@
         <v>-21483302.98083107</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31283,12 +29775,12 @@
         <v>-21595232.11263107</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.977</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31325,9 +29817,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31364,9 +29854,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31403,9 +29891,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31442,9 +29928,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31481,9 +29965,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31520,9 +30002,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31559,9 +30039,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31598,9 +30076,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31637,9 +30113,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31676,9 +30150,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31715,9 +30187,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31754,9 +30224,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31793,9 +30261,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31832,9 +30298,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31871,9 +30335,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31910,9 +30372,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31949,9 +30409,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31988,9 +30446,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32027,9 +30483,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32066,9 +30520,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32105,9 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32144,9 +30594,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32183,9 +30631,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32222,9 +30668,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32261,9 +30705,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32300,9 +30742,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32339,9 +30779,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32378,9 +30816,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32417,9 +30853,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32456,9 +30890,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32495,9 +30927,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32534,9 +30964,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32573,9 +31001,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32612,9 +31038,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32651,9 +31075,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32690,9 +31112,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32729,9 +31149,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32768,9 +31186,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32807,9 +31223,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32846,9 +31260,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32885,9 +31297,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32924,9 +31334,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32963,9 +31371,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33002,9 +31408,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33041,9 +31445,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33080,9 +31482,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33119,9 +31519,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33158,9 +31556,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33197,9 +31593,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33236,9 +31630,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33275,9 +31667,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33314,9 +31704,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33353,9 +31741,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33392,9 +31778,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33431,9 +31815,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33470,9 +31852,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33509,9 +31889,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33548,9 +31926,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33587,9 +31963,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33626,9 +32000,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33665,9 +32037,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33704,9 +32074,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33743,9 +32111,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33779,20 +32145,16 @@
         <v>-20629811.69418117</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>3.977</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
+      <c r="L926" t="inlineStr"/>
       <c r="M926" t="inlineStr"/>
     </row>
     <row r="927">
@@ -33821,14 +32183,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33860,14 +32216,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33899,14 +32249,8 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33938,14 +32282,8 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33977,14 +32315,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -34016,14 +32348,8 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -34055,14 +32381,8 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -34094,14 +32414,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34133,14 +32447,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34172,14 +32480,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34211,14 +32513,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34250,14 +32546,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34289,14 +32579,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34328,14 +32612,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34367,14 +32645,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34406,14 +32678,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34445,14 +32711,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34481,17 +32741,15 @@
         <v>-20678339.00948117</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J944" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.986</v>
+      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34520,15 +32778,17 @@
         <v>-20635173.79048117</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J945" t="n">
-        <v>3.977</v>
+        <v>3.986</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L945" t="n">
@@ -34563,11 +32823,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.977</v>
+        <v>3.986</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L946" t="n">
@@ -34598,17 +32858,15 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3.985</v>
+      </c>
       <c r="J947" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.985</v>
+      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34637,15 +32895,17 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J948" t="n">
-        <v>3.977</v>
+        <v>3.985</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L948" t="n">
@@ -34680,11 +32940,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.977</v>
+        <v>3.985</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L949" t="n">
@@ -34718,14 +32978,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34757,14 +33011,8 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34796,14 +33044,8 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34835,14 +33077,8 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34874,14 +33110,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34913,14 +33143,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34952,14 +33176,8 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34991,14 +33209,8 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -35030,14 +33242,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -35069,14 +33275,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35108,14 +33308,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35147,14 +33341,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35186,14 +33374,8 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35225,14 +33407,8 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35264,14 +33440,8 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35303,14 +33473,8 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35342,14 +33506,8 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35381,14 +33539,8 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35420,14 +33572,8 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35459,14 +33605,8 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35498,14 +33638,8 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35537,14 +33671,8 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35576,14 +33704,8 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35615,14 +33737,8 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35654,14 +33770,8 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35693,14 +33803,8 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35732,14 +33836,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35771,14 +33869,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35810,14 +33902,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35849,14 +33935,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35888,14 +33968,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35927,14 +34001,8 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35966,14 +34034,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -36005,14 +34067,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -36044,14 +34100,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -36083,14 +34133,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -36122,14 +34166,8 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -36161,14 +34199,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -36200,20 +34232,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
       <c r="M988" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-15 BackTest TMTG.xlsx
@@ -583,7 +583,7 @@
         <v>-773178.8357763278</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-732409.9997763277</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-621560.4917763277</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-479766.4207763277</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-496188.3807763277</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-469659.9947763277</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-9146038.051774301</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-9618106.068774302</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-9147056.068774302</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-9220858.787774302</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-9066834.209774302</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-8662590.755774302</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-8394668.995774303</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9101680.550774302</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9191358.193774302</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-9361667.168774301</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9886545.987774301</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-10197822.9357743</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-9468207.102774302</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-9320177.671974299</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-9159078.438974299</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-9263125.198974298</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-9854205.351974297</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-10320794.6030743</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-10349960.9400743</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-10303550.6810743</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-9243826.399674296</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-8957095.608574297</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-9003602.575574297</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-8868992.265574297</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-8788363.619574297</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-8634967.366574297</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-8280164.348474297</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-8240201.776474297</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-8168868.219774297</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-8017659.236074298</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-7629559.752101711</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-7749056.323101711</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-7289724.983639807</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-7245499.359639807</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-7196025.703239807</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-7259340.609239807</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-7439439.319239807</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-7449116.481239807</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-7386267.855239807</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-7440973.870239806</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-7599712.667239807</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-7493512.597239806</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-7488175.783239806</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-8082253.435039806</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-7941703.890039806</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-8155645.439639807</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-8283729.615639807</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-8307102.778639806</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-8234618.029639807</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-8176846.485639807</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-8369684.485039807</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-8361511.857339807</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-8392389.863139806</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-8274604.829839806</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-8143017.949339806</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17446,14 +17446,10 @@
         <v>-20477238.73826713</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="J517" t="n">
-        <v>4.005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
@@ -17486,14 +17482,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17525,14 +17515,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17564,14 +17548,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17603,14 +17581,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17642,14 +17614,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17681,14 +17647,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17720,14 +17680,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17759,14 +17713,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17798,14 +17746,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17837,14 +17779,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17876,14 +17812,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17915,14 +17845,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17951,19 +17875,13 @@
         <v>-20917656.67526713</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>4.005</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
-        <v>0.9917540574282148</v>
+        <v>1</v>
       </c>
       <c r="M530" t="inlineStr"/>
     </row>
@@ -17990,7 +17908,7 @@
         <v>-20874056.40126713</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18023,7 +17941,7 @@
         <v>-20729316.67426712</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18782,17 +18700,11 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>3.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18821,17 +18733,11 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>3.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18864,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18934,17 +18832,11 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>3.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18973,17 +18865,11 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>3.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19016,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19053,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19090,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19127,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19201,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19238,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19275,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19312,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19349,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19386,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19423,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19460,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19497,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19534,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19571,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19608,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19645,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19682,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19719,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19793,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19830,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19867,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19904,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19941,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19978,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20015,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20052,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20089,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20126,11 +19892,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20163,11 +19925,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +19958,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20237,11 +19991,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20274,11 +20024,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20311,11 +20057,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20348,11 +20090,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20381,15 +20119,15 @@
         <v>-20255815.29876866</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="J598" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20418,13 +20156,17 @@
         <v>-19833032.64736866</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>4.006</v>
+      </c>
+      <c r="J599" t="n">
+        <v>4.004</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L599" t="n">
@@ -20458,10 +20200,12 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>4.004</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L600" t="n">
@@ -20496,11 +20240,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20533,11 +20273,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20570,11 +20306,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +20339,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20644,11 +20372,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20681,11 +20405,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20718,11 +20438,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20755,11 +20471,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20792,11 +20504,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20829,11 +20537,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20862,13 +20566,15 @@
         <v>-20601141.49606866</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>4.001</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -20936,9 +20642,11 @@
         <v>-20773186.00006866</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3.996</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20973,9 +20681,11 @@
         <v>-20804227.28906867</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3.997</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22157,11 +21867,9 @@
         <v>-21059062.87876715</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22307,11 +22015,9 @@
         <v>-21153219.05676715</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22383,11 +22089,9 @@
         <v>-21205970.43376715</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3.983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22422,11 +22126,9 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>3.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22461,11 +22163,9 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>3.981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22500,11 +22200,9 @@
         <v>-21185882.27276715</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>3.981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22539,11 +22237,9 @@
         <v>-21121237.92476715</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>3.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22578,11 +22274,9 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>3.984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22617,11 +22311,9 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>3.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22878,16 +22570,18 @@
         <v>-20979189.92776715</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L665" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
       <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
@@ -22917,7 +22611,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22946,11 +22644,15 @@
         <v>-21803845.05086715</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22983,7 +22685,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23016,7 +22722,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23049,7 +22759,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +22796,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23111,11 +22829,17 @@
         <v>-21569435.30086715</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23148,7 +22872,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23181,7 +22909,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23214,7 +22946,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23247,7 +22983,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23280,7 +23020,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +23057,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +23094,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23379,7 +23131,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23412,7 +23168,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23445,7 +23205,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23478,7 +23242,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23511,7 +23279,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23544,7 +23316,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23577,7 +23353,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23606,11 +23386,17 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23639,11 +23425,17 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23672,11 +23464,17 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23705,11 +23503,17 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23738,11 +23542,17 @@
         <v>-21966673.37836716</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23771,11 +23581,17 @@
         <v>-22116950.97236716</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23804,11 +23620,17 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3.981</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23837,11 +23659,17 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23875,10 +23703,12 @@
       <c r="I695" t="n">
         <v>3.982</v>
       </c>
-      <c r="J695" t="n">
-        <v>3.982</v>
-      </c>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23912,12 +23742,10 @@
       <c r="I696" t="n">
         <v>3.981</v>
       </c>
-      <c r="J696" t="n">
-        <v>3.982</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L696" t="n">
@@ -23953,12 +23781,10 @@
       <c r="I697" t="n">
         <v>3.982</v>
       </c>
-      <c r="J697" t="n">
-        <v>3.982</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L697" t="n">
@@ -23989,11 +23815,17 @@
         <v>-21929975.28736716</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24022,11 +23854,17 @@
         <v>-21908127.66736716</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24055,11 +23893,17 @@
         <v>-22016168.00736716</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24088,11 +23932,17 @@
         <v>-21950961.08236716</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24121,11 +23971,17 @@
         <v>-22110476.96136716</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24154,11 +24010,17 @@
         <v>-22124259.50066715</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24187,11 +24049,17 @@
         <v>-22069544.25666716</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24220,11 +24088,17 @@
         <v>-22019860.77866716</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24253,11 +24127,17 @@
         <v>-22164474.40366716</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24286,11 +24166,17 @@
         <v>-22243632.67366716</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24319,11 +24205,17 @@
         <v>-22232054.82566715</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24352,11 +24244,17 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24385,11 +24283,17 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24418,11 +24322,17 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24451,11 +24361,17 @@
         <v>-22131730.91066715</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>3.982</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24484,11 +24400,17 @@
         <v>-22118082.80266716</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24517,11 +24439,17 @@
         <v>-22176578.10966716</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24550,11 +24478,17 @@
         <v>-22134835.73366716</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24583,11 +24517,17 @@
         <v>-22413113.40566716</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24616,11 +24556,17 @@
         <v>-22232809.73536248</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24653,7 +24599,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24682,11 +24632,15 @@
         <v>-22212948.33036248</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24715,11 +24669,15 @@
         <v>-21590798.97236248</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24752,7 +24710,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24785,7 +24747,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +24784,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24851,7 +24821,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24884,7 +24858,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24917,7 +24895,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24950,7 +24932,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24983,7 +24969,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25016,7 +25006,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25049,7 +25043,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25082,7 +25080,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25115,7 +25117,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25148,7 +25154,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25177,11 +25187,17 @@
         <v>-22730387.20936248</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25210,11 +25226,17 @@
         <v>-22660616.41636248</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25243,11 +25265,17 @@
         <v>-22660616.41636248</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25276,11 +25304,17 @@
         <v>-22772971.22536248</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25309,11 +25343,17 @@
         <v>-22697168.56536248</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25342,11 +25382,17 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25375,11 +25421,17 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25408,11 +25460,17 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25441,11 +25499,17 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25474,11 +25538,17 @@
         <v>-22592437.01636248</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25507,11 +25577,17 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25540,11 +25616,17 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25573,11 +25655,17 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25606,11 +25694,17 @@
         <v>-22532042.41436248</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25639,11 +25733,17 @@
         <v>-22467776.17836248</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25672,11 +25772,17 @@
         <v>-22392772.50636248</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25705,11 +25811,17 @@
         <v>-22619261.09636248</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3.991</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25738,11 +25850,17 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25771,11 +25889,17 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25804,11 +25928,17 @@
         <v>-22682858.96436248</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25837,11 +25967,17 @@
         <v>-22610655.08236248</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25870,11 +26006,17 @@
         <v>-22668724.95736248</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25903,11 +26045,17 @@
         <v>-22668724.95736248</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25936,11 +26084,17 @@
         <v>-22507434.37236248</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25969,11 +26123,17 @@
         <v>-22610186.77706248</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26002,11 +26162,17 @@
         <v>-22610186.77706248</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26035,11 +26201,17 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26068,11 +26240,17 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26101,11 +26279,17 @@
         <v>-22046757.59306248</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26134,11 +26318,17 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26167,11 +26357,17 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26200,11 +26396,17 @@
         <v>-21830623.54780554</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26237,7 +26439,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26270,7 +26476,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26303,7 +26513,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26336,7 +26550,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26365,15 +26583,13 @@
         <v>-21726745.10280554</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>4.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L770" t="n">
@@ -28735,11 +28951,9 @@
         <v>-21244838.43674948</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29736,11 +29950,9 @@
         <v>-21483302.98083107</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>3.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29775,11 +29987,9 @@
         <v>-21595232.11263107</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>3.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -32145,16 +32355,18 @@
         <v>-20629811.69418117</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L926" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
       <c r="M926" t="inlineStr"/>
     </row>
     <row r="927">
@@ -32184,7 +32396,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32217,7 +32433,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32250,7 +32470,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32283,7 +32507,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32316,7 +32544,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32349,7 +32581,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32382,7 +32618,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32415,7 +32655,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32448,7 +32692,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32481,7 +32729,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32514,7 +32766,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32547,7 +32803,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32580,7 +32840,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32613,7 +32877,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32646,7 +32914,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32679,7 +32951,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32712,7 +32988,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32741,15 +33021,15 @@
         <v>-20678339.00948117</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="J944" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="K944" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32778,17 +33058,13 @@
         <v>-20635173.79048117</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="J945" t="n">
-        <v>3.986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L945" t="n">
@@ -32822,12 +33098,10 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>3.986</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L946" t="n">
@@ -32858,15 +33132,15 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="J947" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="K947" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32895,17 +33169,13 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="J948" t="n">
-        <v>3.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L948" t="n">
@@ -32939,12 +33209,10 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>3.985</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L949" t="n">
@@ -32979,7 +33247,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33012,7 +33284,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33045,7 +33321,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33078,7 +33358,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33111,7 +33395,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33144,7 +33432,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33177,7 +33469,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33210,7 +33506,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33243,7 +33543,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33276,7 +33580,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33309,7 +33617,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33342,7 +33654,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33375,7 +33691,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33408,7 +33728,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33441,7 +33765,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33474,7 +33802,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33507,7 +33839,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33540,7 +33876,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33573,7 +33913,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33606,7 +33950,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33639,7 +33987,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33672,7 +34024,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33705,7 +34061,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33738,7 +34098,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33771,7 +34135,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33804,7 +34172,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33837,7 +34209,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33870,7 +34246,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33903,7 +34283,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33936,7 +34320,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33969,7 +34357,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34002,7 +34394,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34035,7 +34431,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34068,7 +34468,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34101,7 +34505,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34134,7 +34542,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34167,7 +34579,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34200,7 +34616,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34233,7 +34653,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
